--- a/GVI & WUB/GVI/LS2/Darlehen.xlsx
+++ b/GVI & WUB/GVI/LS2/Darlehen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/repos/Danger_Gang_GVI/GVI &amp; WUB/LS2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEUF\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EF946-6CFA-A84C-88E7-BFF1EFE8CA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27F9F99-B5E1-4D14-9317-50D6B6AE3014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{19145FF4-2683-6F4D-8A4B-9450B1FFE9E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,7 +92,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,20 +525,20 @@
   <dimension ref="C3:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="5.5" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8">
       <c r="D3" t="s">
         <v>7</v>
       </c>
@@ -551,12 +549,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8">
       <c r="E4" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -576,7 +574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8">
       <c r="C6">
         <v>1</v>
       </c>
@@ -599,7 +597,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8">
       <c r="C7">
         <v>2</v>
       </c>
@@ -622,7 +620,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8">
       <c r="C8">
         <v>3</v>
       </c>
@@ -646,7 +644,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:8">
       <c r="D9" t="s">
         <v>6</v>
       </c>
@@ -664,7 +662,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:8">
       <c r="F10" t="s">
         <v>15</v>
       </c>
@@ -673,7 +671,7 @@
         <v>14880</v>
       </c>
     </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:8">
       <c r="D12" t="s">
         <v>8</v>
       </c>
@@ -684,12 +682,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:8">
       <c r="E13" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:8">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -709,7 +707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:8">
       <c r="C15">
         <v>1</v>
       </c>
@@ -732,7 +730,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:8">
       <c r="C16">
         <v>2</v>
       </c>
@@ -756,7 +754,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:8">
       <c r="C17">
         <v>3</v>
       </c>
@@ -781,7 +779,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:8">
       <c r="D18" t="s">
         <v>6</v>
       </c>
@@ -799,7 +797,7 @@
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:8">
       <c r="F19" t="s">
         <v>15</v>
       </c>
@@ -808,7 +806,7 @@
         <v>13920</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:8">
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -819,12 +817,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:8">
       <c r="E22" s="2">
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:8">
       <c r="C23" t="s">
         <v>0</v>
       </c>
@@ -844,7 +842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:8">
       <c r="C24">
         <v>1</v>
       </c>
@@ -867,7 +865,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:8">
       <c r="C25">
         <v>2</v>
       </c>
@@ -891,7 +889,7 @@
         <v>3596.8</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:8">
       <c r="C26">
         <v>3</v>
       </c>
@@ -908,15 +906,15 @@
         <v>3096.8</v>
       </c>
       <c r="G26" s="1">
-        <f>D26+E26</f>
-        <v>3884.5440000000003</v>
+        <f>F26+E26</f>
+        <v>3384.5440000000003</v>
       </c>
       <c r="H26" s="1">
         <f>D26-F26</f>
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:8">
       <c r="D27" t="s">
         <v>6</v>
       </c>
@@ -929,12 +927,12 @@
         <v>11500</v>
       </c>
       <c r="G27" s="1">
-        <f>E27+F27</f>
+        <f>SUM(G24:G26)</f>
         <v>13384.544</v>
       </c>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:8">
       <c r="F28" t="s">
         <v>15</v>
       </c>
@@ -943,12 +941,12 @@
         <v>13884.544</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:8">
       <c r="D31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:8">
       <c r="D32" t="s">
         <v>11</v>
       </c>
@@ -956,7 +954,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:5">
       <c r="D33" t="s">
         <v>12</v>
       </c>
@@ -964,7 +962,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:5">
       <c r="D34" t="s">
         <v>13</v>
       </c>
@@ -972,7 +970,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:5">
       <c r="D35" t="s">
         <v>14</v>
       </c>
@@ -981,7 +979,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:5">
       <c r="D36" t="s">
         <v>15</v>
       </c>
